--- a/Bloom_cognitive.xlsx
+++ b/Bloom_cognitive.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musth\OneDrive\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\OneDrive\Desktop\Uni\ENG4702\Course_Design_For_Accreditation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451C15A8-C501-41B3-AFA4-569F7CCF6481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FECEF2-145C-4E88-ACE5-E05CFA178303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bloom Cognitive Monash" sheetId="1" r:id="rId1"/>
     <sheet name="Bloom Cognitive Empirical" sheetId="2" r:id="rId2"/>
     <sheet name="Bloom Cognitive Encyclopedia" sheetId="3" r:id="rId3"/>
     <sheet name="Bloom Cognitive Anderson" sheetId="4" r:id="rId4"/>
+    <sheet name="Bloom Cognitive Waterloo" sheetId="5" r:id="rId5"/>
+    <sheet name="Bloom Cognitive Alberta" sheetId="6" r:id="rId6"/>
+    <sheet name="Bloom Cognitive Madison" sheetId="7" r:id="rId7"/>
+    <sheet name="Bloom Cognitive UIC" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="360">
   <si>
     <t>Remembering</t>
   </si>
@@ -597,6 +601,528 @@
   </si>
   <si>
     <t>structure</t>
+  </si>
+  <si>
+    <t>memorize</t>
+  </si>
+  <si>
+    <t>recognize</t>
+  </si>
+  <si>
+    <t>discuess</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>summarize</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>organize</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>categorize</t>
+  </si>
+  <si>
+    <t>criticize</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>inspect</t>
+  </si>
+  <si>
+    <t>investigate</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
+    <t>hypothesize</t>
+  </si>
+  <si>
+    <t>propose</t>
+  </si>
+  <si>
+    <t>synthesize</t>
+  </si>
+  <si>
+    <t>accumulate</t>
+  </si>
+  <si>
+    <t>retrieve</t>
+  </si>
+  <si>
+    <t>exemplify</t>
+  </si>
+  <si>
+    <t>respond</t>
+  </si>
+  <si>
+    <t>utilize</t>
+  </si>
+  <si>
+    <t>generalize</t>
+  </si>
+  <si>
+    <t>analyze</t>
+  </si>
+  <si>
+    <t>correlate</t>
+  </si>
+  <si>
+    <t>determine</t>
+  </si>
+  <si>
+    <t>detect</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>validate</t>
+  </si>
+  <si>
+    <t>enumerate</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>approximate</t>
+  </si>
+  <si>
+    <t>associate</t>
+  </si>
+  <si>
+    <t>characterize</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>elaborate</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>interact</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>visualize</t>
+  </si>
+  <si>
+    <t>acquire</t>
+  </si>
+  <si>
+    <t>allocate</t>
+  </si>
+  <si>
+    <t>alphabetize</t>
+  </si>
+  <si>
+    <t>ascertain</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>attain</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>customize</t>
+  </si>
+  <si>
+    <t>depreciate</t>
+  </si>
+  <si>
+    <t>derive</t>
+  </si>
+  <si>
+    <t>diminish</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>expose</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>interconvert</t>
+  </si>
+  <si>
+    <t>personalize</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>simulate</t>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <t>transcribe</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>blueprint</t>
+  </si>
+  <si>
+    <t>breadboard</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>diagnose</t>
+  </si>
+  <si>
+    <t>dissect</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>interrupt</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>maximize</t>
+  </si>
+  <si>
+    <t>minimize</t>
+  </si>
+  <si>
+    <t>optimize</t>
+  </si>
+  <si>
+    <t>prioritize</t>
+  </si>
+  <si>
+    <t>proofread</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>selecct</t>
+  </si>
+  <si>
+    <t>subdivide</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>animate</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>cope</t>
+  </si>
+  <si>
+    <t>correspond</t>
+  </si>
+  <si>
+    <t>cultivate</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>depict</t>
+  </si>
+  <si>
+    <t>dictate</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>facilitate</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>improve</t>
+  </si>
+  <si>
+    <t>incorporate</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>lecture</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>portray</t>
+  </si>
+  <si>
+    <t>prescribe</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>rearrange</t>
+  </si>
+  <si>
+    <t>reconstruct</t>
+  </si>
+  <si>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>reorganize</t>
+  </si>
+  <si>
+    <t>specify</t>
+  </si>
+  <si>
+    <t>counsel</t>
+  </si>
+  <si>
+    <t>extimate</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>hire</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>omit</t>
+  </si>
+  <si>
+    <t>retell</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>familiarize</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>administer</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
+    <t>collect</t>
+  </si>
+  <si>
+    <t>conduct</t>
+  </si>
+  <si>
+    <t>dramatize</t>
+  </si>
+  <si>
+    <t>establish</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>stimulate</t>
+  </si>
+  <si>
+    <t>advertise</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>divide</t>
+  </si>
+  <si>
+    <t>extract</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>editorialize</t>
+  </si>
+  <si>
+    <t>persuade</t>
+  </si>
+  <si>
+    <t>reframe</t>
+  </si>
+  <si>
+    <t>substantiate</t>
+  </si>
+  <si>
+    <t>suggest</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>intervene</t>
+  </si>
+  <si>
+    <t>negotiate</t>
+  </si>
+  <si>
+    <t>originate</t>
+  </si>
+  <si>
+    <t>role-play</t>
+  </si>
+  <si>
+    <t>schematize</t>
+  </si>
+  <si>
+    <t>speculate</t>
+  </si>
+  <si>
+    <t>subsitute</t>
   </si>
 </sst>
 </file>
@@ -1028,21 +1554,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1122,7 +1648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1142,7 +1668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -1162,7 +1688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -1202,7 +1728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1222,7 +1748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -1242,7 +1768,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -1262,7 +1788,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
@@ -1282,7 +1808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -1315,17 +1841,17 @@
       <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1365,7 +1891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +1911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -1405,7 +1931,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -1425,7 +1951,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1445,7 +1971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1465,7 +1991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -1485,7 +2011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1505,7 +2031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -1525,7 +2051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -1545,7 +2071,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>99</v>
       </c>
@@ -1565,7 +2091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
@@ -1585,7 +2111,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>104</v>
       </c>
@@ -1603,7 +2129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
@@ -1632,16 +2158,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +2187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>106</v>
       </c>
@@ -1681,7 +2207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>109</v>
       </c>
@@ -1701,7 +2227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>112</v>
       </c>
@@ -1721,7 +2247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>115</v>
       </c>
@@ -1741,7 +2267,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1761,7 +2287,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -1781,7 +2307,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -1801,7 +2327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1821,7 +2347,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -1841,7 +2367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>120</v>
       </c>
@@ -1861,7 +2387,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -1881,7 +2407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -1901,7 +2427,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
@@ -1919,7 +2445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
@@ -1937,7 +2463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>123</v>
       </c>
@@ -1945,7 +2471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -1953,7 +2479,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>125</v>
       </c>
@@ -1961,7 +2487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
@@ -1969,7 +2495,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>127</v>
       </c>
@@ -1977,7 +2503,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>128</v>
       </c>
@@ -1985,7 +2511,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -1993,7 +2519,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>130</v>
       </c>
@@ -2001,7 +2527,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
@@ -2009,7 +2535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>133</v>
       </c>
@@ -2017,7 +2543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>134</v>
       </c>
@@ -2025,7 +2551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
@@ -2033,7 +2559,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>99</v>
       </c>
@@ -2041,7 +2567,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>135</v>
       </c>
@@ -2049,7 +2575,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
@@ -2057,7 +2583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>69</v>
       </c>
@@ -2065,7 +2591,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2073,7 +2599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2081,7 +2607,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>140</v>
       </c>
@@ -2089,7 +2615,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>71</v>
       </c>
@@ -2097,62 +2623,62 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>64</v>
       </c>
@@ -2166,20 +2692,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD9231E-4195-4C6F-9DBA-E8E978B00184}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2199,7 +2725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>144</v>
       </c>
@@ -2219,7 +2745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>146</v>
       </c>
@@ -2239,7 +2765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>148</v>
       </c>
@@ -2259,7 +2785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>150</v>
       </c>
@@ -2279,7 +2805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>152</v>
       </c>
@@ -2299,7 +2825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>155</v>
       </c>
@@ -2319,7 +2845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>159</v>
       </c>
@@ -2339,7 +2865,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>163</v>
       </c>
@@ -2359,7 +2885,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>166</v>
       </c>
@@ -2379,7 +2905,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>169</v>
       </c>
@@ -2399,7 +2925,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>173</v>
       </c>
@@ -2419,7 +2945,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>176</v>
       </c>
@@ -2439,7 +2965,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>178</v>
       </c>
@@ -2457,7 +2983,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>182</v>
       </c>
@@ -2473,7 +2999,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2485,7 +3011,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2497,7 +3023,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2509,7 +3035,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2522,4 +3048,2411 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3582D993-578C-4563-8256-FDE42948173D}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87225C2-4FF9-4D57-B113-552B69A473A8}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1698DE52-6E93-47D3-AD7A-A4F04E2B30C3}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" t="s">
+        <v>299</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31" t="s">
+        <v>302</v>
+      </c>
+      <c r="F31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E32" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" t="s">
+        <v>281</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" t="s">
+        <v>282</v>
+      </c>
+      <c r="E37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" t="s">
+        <v>283</v>
+      </c>
+      <c r="E38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>284</v>
+      </c>
+      <c r="E39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" t="s">
+        <v>286</v>
+      </c>
+      <c r="E43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" t="s">
+        <v>287</v>
+      </c>
+      <c r="E44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>288</v>
+      </c>
+      <c r="E45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>258</v>
+      </c>
+      <c r="E48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>259</v>
+      </c>
+      <c r="E50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>260</v>
+      </c>
+      <c r="E51" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>261</v>
+      </c>
+      <c r="E52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09911308-35EF-4670-BF32-311156ED1B8E}">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" t="s">
+        <v>347</v>
+      </c>
+      <c r="F22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" t="s">
+        <v>343</v>
+      </c>
+      <c r="E24" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" t="s">
+        <v>348</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" t="s">
+        <v>349</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>350</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" t="s">
+        <v>323</v>
+      </c>
+      <c r="F35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>344</v>
+      </c>
+      <c r="E36" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>338</v>
+      </c>
+      <c r="F38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>339</v>
+      </c>
+      <c r="F39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>